--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Col9a3-Mag.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Col9a3-Mag.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.235259</v>
+        <v>0.633813</v>
       </c>
       <c r="H2">
-        <v>2.470518</v>
+        <v>1.267626</v>
       </c>
       <c r="I2">
-        <v>0.2325174299743795</v>
+        <v>0.203111405506584</v>
       </c>
       <c r="J2">
-        <v>0.1732109743374089</v>
+        <v>0.1549903964413096</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.27644</v>
+        <v>0.110622</v>
       </c>
       <c r="N2">
-        <v>0.8293199999999999</v>
+        <v>0.331866</v>
       </c>
       <c r="O2">
-        <v>0.1940440920813294</v>
+        <v>0.0981199486258843</v>
       </c>
       <c r="P2">
-        <v>0.2208748168298663</v>
+        <v>0.1197911327431839</v>
       </c>
       <c r="Q2">
-        <v>0.34147499796</v>
+        <v>0.070113661686</v>
       </c>
       <c r="R2">
-        <v>2.04884998776</v>
+        <v>0.4206819701159999</v>
       </c>
       <c r="S2">
-        <v>0.04511863359246257</v>
+        <v>0.01992928067363718</v>
       </c>
       <c r="T2">
-        <v>0.03825794222969785</v>
+        <v>0.01856647515401962</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.235259</v>
+        <v>0.633813</v>
       </c>
       <c r="H3">
-        <v>2.470518</v>
+        <v>1.267626</v>
       </c>
       <c r="I3">
-        <v>0.2325174299743795</v>
+        <v>0.203111405506584</v>
       </c>
       <c r="J3">
-        <v>0.1732109743374089</v>
+        <v>0.1549903964413096</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.5191680000000001</v>
+        <v>0.6118760000000001</v>
       </c>
       <c r="N3">
-        <v>1.038336</v>
+        <v>1.223752</v>
       </c>
       <c r="O3">
-        <v>0.3644244074579643</v>
+        <v>0.5427242473053424</v>
       </c>
       <c r="P3">
-        <v>0.2765425575264748</v>
+        <v>0.4417284032613671</v>
       </c>
       <c r="Q3">
-        <v>0.6413069445120001</v>
+        <v>0.387814963188</v>
       </c>
       <c r="R3">
-        <v>2.565227778048</v>
+        <v>1.551259852752</v>
       </c>
       <c r="S3">
-        <v>0.08473502664206198</v>
+        <v>0.110233484672691</v>
       </c>
       <c r="T3">
-        <v>0.04790020583491965</v>
+        <v>0.06846366034086596</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,51 +667,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.235259</v>
+        <v>0.633813</v>
       </c>
       <c r="H4">
-        <v>2.470518</v>
+        <v>1.267626</v>
       </c>
       <c r="I4">
-        <v>0.2325174299743795</v>
+        <v>0.203111405506584</v>
       </c>
       <c r="J4">
-        <v>0.1732109743374089</v>
+        <v>0.1549903964413096</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.6290166666666667</v>
+        <v>0.192067</v>
       </c>
       <c r="N4">
-        <v>1.88705</v>
+        <v>0.576201</v>
       </c>
       <c r="O4">
-        <v>0.4415315004607061</v>
+        <v>0.1703603638763331</v>
       </c>
       <c r="P4">
-        <v>0.5025826256436589</v>
+        <v>0.2079868696333922</v>
       </c>
       <c r="Q4">
-        <v>0.77699849865</v>
+        <v>0.121734561471</v>
       </c>
       <c r="R4">
-        <v>4.661990991900001</v>
+        <v>0.7304073688259999</v>
       </c>
       <c r="S4">
-        <v>0.102663769739855</v>
+        <v>0.0346021329495351</v>
       </c>
       <c r="T4">
-        <v>0.08705282627279137</v>
+        <v>0.03223596737906642</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,55 +720,55 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.5501983333333333</v>
+        <v>0.633813</v>
       </c>
       <c r="H5">
-        <v>1.650595</v>
+        <v>1.267626</v>
       </c>
       <c r="I5">
-        <v>0.103565893827006</v>
+        <v>0.203111405506584</v>
       </c>
       <c r="J5">
-        <v>0.1157251913106706</v>
+        <v>0.1549903964413096</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.27644</v>
+        <v>0.212851</v>
       </c>
       <c r="N5">
-        <v>0.8293199999999999</v>
+        <v>0.638553</v>
       </c>
       <c r="O5">
-        <v>0.1940440920813294</v>
+        <v>0.18879544019244</v>
       </c>
       <c r="P5">
-        <v>0.2208748168298663</v>
+        <v>0.2304935943620568</v>
       </c>
       <c r="Q5">
-        <v>0.1520968272666667</v>
+        <v>0.134907730863</v>
       </c>
       <c r="R5">
-        <v>1.3688714454</v>
+        <v>0.809446385178</v>
       </c>
       <c r="S5">
-        <v>0.02009634983825275</v>
+        <v>0.03834650721072072</v>
       </c>
       <c r="T5">
-        <v>0.02556078043334561</v>
+        <v>0.03572429356735758</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -797,40 +797,40 @@
         <v>1.650595</v>
       </c>
       <c r="I6">
-        <v>0.103565893827006</v>
+        <v>0.1763162901213976</v>
       </c>
       <c r="J6">
-        <v>0.1157251913106706</v>
+        <v>0.2018153409712671</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.5191680000000001</v>
+        <v>0.110622</v>
       </c>
       <c r="N6">
-        <v>1.038336</v>
+        <v>0.331866</v>
       </c>
       <c r="O6">
-        <v>0.3644244074579643</v>
+        <v>0.0981199486258843</v>
       </c>
       <c r="P6">
-        <v>0.2765425575264748</v>
+        <v>0.1197911327431839</v>
       </c>
       <c r="Q6">
-        <v>0.28564536832</v>
+        <v>0.06086404003</v>
       </c>
       <c r="R6">
-        <v>1.71387220992</v>
+        <v>0.54777636027</v>
       </c>
       <c r="S6">
-        <v>0.03774193949076112</v>
+        <v>0.01730014532861804</v>
       </c>
       <c r="T6">
-        <v>0.03200294037529344</v>
+        <v>0.02417568829989998</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,45 +859,45 @@
         <v>1.650595</v>
       </c>
       <c r="I7">
-        <v>0.103565893827006</v>
+        <v>0.1763162901213976</v>
       </c>
       <c r="J7">
-        <v>0.1157251913106706</v>
+        <v>0.2018153409712671</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.6290166666666667</v>
+        <v>0.6118760000000001</v>
       </c>
       <c r="N7">
-        <v>1.88705</v>
+        <v>1.223752</v>
       </c>
       <c r="O7">
-        <v>0.4415315004607061</v>
+        <v>0.5427242473053424</v>
       </c>
       <c r="P7">
-        <v>0.5025826256436589</v>
+        <v>0.4417284032613671</v>
       </c>
       <c r="Q7">
-        <v>0.3460839216388889</v>
+        <v>0.3366531554066667</v>
       </c>
       <c r="R7">
-        <v>3.11475529475</v>
+        <v>2.01991893244</v>
       </c>
       <c r="S7">
-        <v>0.04572760449799216</v>
+        <v>0.09569112584380587</v>
       </c>
       <c r="T7">
-        <v>0.05816147050203159</v>
+        <v>0.08914756832088618</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.7294966666666666</v>
+        <v>0.5501983333333333</v>
       </c>
       <c r="H8">
-        <v>2.18849</v>
+        <v>1.650595</v>
       </c>
       <c r="I8">
-        <v>0.1373158909250691</v>
+        <v>0.1763162901213976</v>
       </c>
       <c r="J8">
-        <v>0.1534376536530703</v>
+        <v>0.2018153409712671</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,33 +933,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.27644</v>
+        <v>0.192067</v>
       </c>
       <c r="N8">
-        <v>0.8293199999999999</v>
+        <v>0.576201</v>
       </c>
       <c r="O8">
-        <v>0.1940440920813294</v>
+        <v>0.1703603638763331</v>
       </c>
       <c r="P8">
-        <v>0.2208748168298663</v>
+        <v>0.2079868696333922</v>
       </c>
       <c r="Q8">
-        <v>0.2016620585333333</v>
+        <v>0.1056749432883333</v>
       </c>
       <c r="R8">
-        <v>1.8149585268</v>
+        <v>0.951074489595</v>
       </c>
       <c r="S8">
-        <v>0.0266453373828939</v>
+        <v>0.03003730734240641</v>
       </c>
       <c r="T8">
-        <v>0.03389051364542636</v>
+        <v>0.04197494101260951</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,46 +977,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.7294966666666666</v>
+        <v>0.5501983333333333</v>
       </c>
       <c r="H9">
-        <v>2.18849</v>
+        <v>1.650595</v>
       </c>
       <c r="I9">
-        <v>0.1373158909250691</v>
+        <v>0.1763162901213976</v>
       </c>
       <c r="J9">
-        <v>0.1534376536530703</v>
+        <v>0.2018153409712671</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.5191680000000001</v>
+        <v>0.212851</v>
       </c>
       <c r="N9">
-        <v>1.038336</v>
+        <v>0.638553</v>
       </c>
       <c r="O9">
-        <v>0.3644244074579643</v>
+        <v>0.18879544019244</v>
       </c>
       <c r="P9">
-        <v>0.2765425575264748</v>
+        <v>0.2304935943620568</v>
       </c>
       <c r="Q9">
-        <v>0.37873132544</v>
+        <v>0.1171102654483333</v>
       </c>
       <c r="R9">
-        <v>2.27238795264</v>
+        <v>1.053992389035</v>
       </c>
       <c r="S9">
-        <v>0.05004126218493077</v>
+        <v>0.03328771160656722</v>
       </c>
       <c r="T9">
-        <v>0.0424320411620815</v>
+        <v>0.04651714333787142</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.7294966666666666</v>
+        <v>0.5521003333333333</v>
       </c>
       <c r="H10">
-        <v>2.18849</v>
+        <v>1.656301</v>
       </c>
       <c r="I10">
-        <v>0.1373158909250691</v>
+        <v>0.1769258041157043</v>
       </c>
       <c r="J10">
-        <v>0.1534376536530703</v>
+        <v>0.2025130035326962</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,95 +1057,95 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.6290166666666667</v>
+        <v>0.110622</v>
       </c>
       <c r="N10">
-        <v>1.88705</v>
+        <v>0.331866</v>
       </c>
       <c r="O10">
-        <v>0.4415315004607061</v>
+        <v>0.0981199486258843</v>
       </c>
       <c r="P10">
-        <v>0.5025826256436589</v>
+        <v>0.1197911327431839</v>
       </c>
       <c r="Q10">
-        <v>0.458865561611111</v>
+        <v>0.06107444307399999</v>
       </c>
       <c r="R10">
-        <v>4.1297900545</v>
+        <v>0.5496699876659999</v>
       </c>
       <c r="S10">
-        <v>0.06062929135724442</v>
+        <v>0.01735995081042617</v>
       </c>
       <c r="T10">
-        <v>0.07711509884556242</v>
+        <v>0.02425926208840608</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.439315</v>
+        <v>0.5521003333333333</v>
       </c>
       <c r="H11">
-        <v>0.87863</v>
+        <v>1.656301</v>
       </c>
       <c r="I11">
-        <v>0.08269390852379505</v>
+        <v>0.1769258041157043</v>
       </c>
       <c r="J11">
-        <v>0.06160180107251903</v>
+        <v>0.2025130035326962</v>
       </c>
       <c r="K11">
         <v>2</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.27644</v>
+        <v>0.6118760000000001</v>
       </c>
       <c r="N11">
-        <v>0.8293199999999999</v>
+        <v>1.223752</v>
       </c>
       <c r="O11">
-        <v>0.1940440920813294</v>
+        <v>0.5427242473053424</v>
       </c>
       <c r="P11">
-        <v>0.2208748168298663</v>
+        <v>0.4417284032613671</v>
       </c>
       <c r="Q11">
-        <v>0.1214442386</v>
+        <v>0.3378169435586667</v>
       </c>
       <c r="R11">
-        <v>0.7286654316</v>
+        <v>2.026901661352</v>
       </c>
       <c r="S11">
-        <v>0.01604626440015632</v>
+        <v>0.09602192386758805</v>
       </c>
       <c r="T11">
-        <v>0.0136062865282825</v>
+        <v>0.08945574569016147</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.439315</v>
+        <v>0.5521003333333333</v>
       </c>
       <c r="H12">
-        <v>0.87863</v>
+        <v>1.656301</v>
       </c>
       <c r="I12">
-        <v>0.08269390852379505</v>
+        <v>0.1769258041157043</v>
       </c>
       <c r="J12">
-        <v>0.06160180107251903</v>
+        <v>0.2025130035326962</v>
       </c>
       <c r="K12">
         <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.5191680000000001</v>
+        <v>0.192067</v>
       </c>
       <c r="N12">
-        <v>1.038336</v>
+        <v>0.576201</v>
       </c>
       <c r="O12">
-        <v>0.3644244074579643</v>
+        <v>0.1703603638763331</v>
       </c>
       <c r="P12">
-        <v>0.2765425575264748</v>
+        <v>0.2079868696333922</v>
       </c>
       <c r="Q12">
-        <v>0.22807828992</v>
+        <v>0.1060402547223333</v>
       </c>
       <c r="R12">
-        <v>0.9123131596800002</v>
+        <v>0.9543622925009999</v>
       </c>
       <c r="S12">
-        <v>0.03013567861416712</v>
+        <v>0.03014114436826421</v>
       </c>
       <c r="T12">
-        <v>0.01703551961683155</v>
+        <v>0.04212004566482156</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,22 +1219,22 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.439315</v>
+        <v>0.5521003333333333</v>
       </c>
       <c r="H13">
-        <v>0.87863</v>
+        <v>1.656301</v>
       </c>
       <c r="I13">
-        <v>0.08269390852379505</v>
+        <v>0.1769258041157043</v>
       </c>
       <c r="J13">
-        <v>0.06160180107251903</v>
+        <v>0.2025130035326962</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,33 +1243,33 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.6290166666666667</v>
+        <v>0.212851</v>
       </c>
       <c r="N13">
-        <v>1.88705</v>
+        <v>0.638553</v>
       </c>
       <c r="O13">
-        <v>0.4415315004607061</v>
+        <v>0.18879544019244</v>
       </c>
       <c r="P13">
-        <v>0.5025826256436589</v>
+        <v>0.2304935943620568</v>
       </c>
       <c r="Q13">
-        <v>0.2763364569166667</v>
+        <v>0.1175151080503333</v>
       </c>
       <c r="R13">
-        <v>1.6580187415</v>
+        <v>1.057635972453</v>
       </c>
       <c r="S13">
-        <v>0.0365119655094716</v>
+        <v>0.03340278506942581</v>
       </c>
       <c r="T13">
-        <v>0.03095999492740497</v>
+        <v>0.04667795008930704</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1281,57 +1281,57 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.642518</v>
+        <v>0.549005</v>
       </c>
       <c r="H14">
-        <v>1.927554</v>
+        <v>1.09801</v>
       </c>
       <c r="I14">
-        <v>0.1209435705971609</v>
+        <v>0.1759338751021866</v>
       </c>
       <c r="J14">
-        <v>0.1351431183371138</v>
+        <v>0.1342517471214083</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.27644</v>
+        <v>0.110622</v>
       </c>
       <c r="N14">
-        <v>0.8293199999999999</v>
+        <v>0.331866</v>
       </c>
       <c r="O14">
-        <v>0.1940440920813294</v>
+        <v>0.0981199486258843</v>
       </c>
       <c r="P14">
-        <v>0.2208748168298663</v>
+        <v>0.1197911327431839</v>
       </c>
       <c r="Q14">
-        <v>0.17761767592</v>
+        <v>0.06073203110999999</v>
       </c>
       <c r="R14">
-        <v>1.59855908328</v>
+        <v>0.36439218666</v>
       </c>
       <c r="S14">
-        <v>0.02346838534960026</v>
+        <v>0.01726262278657929</v>
       </c>
       <c r="T14">
-        <v>0.02984971150852696</v>
+        <v>0.01608216886042499</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1343,22 +1343,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.642518</v>
+        <v>0.549005</v>
       </c>
       <c r="H15">
-        <v>1.927554</v>
+        <v>1.09801</v>
       </c>
       <c r="I15">
-        <v>0.1209435705971609</v>
+        <v>0.1759338751021866</v>
       </c>
       <c r="J15">
-        <v>0.1351431183371138</v>
+        <v>0.1342517471214083</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1367,157 +1367,157 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.5191680000000001</v>
+        <v>0.6118760000000001</v>
       </c>
       <c r="N15">
-        <v>1.038336</v>
+        <v>1.223752</v>
       </c>
       <c r="O15">
-        <v>0.3644244074579643</v>
+        <v>0.5427242473053424</v>
       </c>
       <c r="P15">
-        <v>0.2765425575264748</v>
+        <v>0.4417284032613671</v>
       </c>
       <c r="Q15">
-        <v>0.3335747850240001</v>
+        <v>0.33592298338</v>
       </c>
       <c r="R15">
-        <v>2.001448710144</v>
+        <v>1.34369193352</v>
       </c>
       <c r="S15">
-        <v>0.04407478905072084</v>
+        <v>0.09548357994034631</v>
       </c>
       <c r="T15">
-        <v>0.03737282357704849</v>
+        <v>0.05930280989098853</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>25</v>
-      </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.642518</v>
+        <v>0.549005</v>
       </c>
       <c r="H16">
-        <v>1.927554</v>
+        <v>1.09801</v>
       </c>
       <c r="I16">
-        <v>0.1209435705971609</v>
+        <v>0.1759338751021866</v>
       </c>
       <c r="J16">
-        <v>0.1351431183371138</v>
+        <v>0.1342517471214083</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.6290166666666667</v>
+        <v>0.192067</v>
       </c>
       <c r="N16">
-        <v>1.88705</v>
+        <v>0.576201</v>
       </c>
       <c r="O16">
-        <v>0.4415315004607061</v>
+        <v>0.1703603638763331</v>
       </c>
       <c r="P16">
-        <v>0.5025826256436589</v>
+        <v>0.2079868696333922</v>
       </c>
       <c r="Q16">
-        <v>0.4041545306333333</v>
+        <v>0.105445743335</v>
       </c>
       <c r="R16">
-        <v>3.6373907757</v>
+        <v>0.6326744600099999</v>
       </c>
       <c r="S16">
-        <v>0.05340039619683979</v>
+        <v>0.02997215898058184</v>
       </c>
       <c r="T16">
-        <v>0.06792058325153838</v>
+        <v>0.02792260062659548</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>25</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>22</v>
-      </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.715756666666667</v>
+        <v>0.549005</v>
       </c>
       <c r="H17">
-        <v>5.14727</v>
+        <v>1.09801</v>
       </c>
       <c r="I17">
-        <v>0.3229633061525894</v>
+        <v>0.1759338751021866</v>
       </c>
       <c r="J17">
-        <v>0.3608812612892173</v>
+        <v>0.1342517471214083</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.27644</v>
+        <v>0.212851</v>
       </c>
       <c r="N17">
-        <v>0.8293199999999999</v>
+        <v>0.638553</v>
       </c>
       <c r="O17">
-        <v>0.1940440920813294</v>
+        <v>0.18879544019244</v>
       </c>
       <c r="P17">
-        <v>0.2208748168298663</v>
+        <v>0.2304935943620568</v>
       </c>
       <c r="Q17">
-        <v>0.4743037729333333</v>
+        <v>0.116856263255</v>
       </c>
       <c r="R17">
-        <v>4.268733956399999</v>
+        <v>0.70113757953</v>
       </c>
       <c r="S17">
-        <v>0.06266912151796365</v>
+        <v>0.03321551339467908</v>
       </c>
       <c r="T17">
-        <v>0.07970958248458698</v>
+        <v>0.03094416774339931</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,117 +1526,489 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>1.715756666666667</v>
+        <v>0.3709356666666666</v>
       </c>
       <c r="H18">
-        <v>5.14727</v>
+        <v>1.112807</v>
       </c>
       <c r="I18">
-        <v>0.3229633061525894</v>
+        <v>0.118869863207584</v>
       </c>
       <c r="J18">
-        <v>0.3608812612892173</v>
+        <v>0.1360609502271682</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.5191680000000001</v>
+        <v>0.110622</v>
       </c>
       <c r="N18">
-        <v>1.038336</v>
+        <v>0.331866</v>
       </c>
       <c r="O18">
-        <v>0.3644244074579643</v>
+        <v>0.0981199486258843</v>
       </c>
       <c r="P18">
-        <v>0.2765425575264748</v>
+        <v>0.1197911327431839</v>
       </c>
       <c r="Q18">
-        <v>0.8907659571200001</v>
+        <v>0.04103364531799999</v>
       </c>
       <c r="R18">
-        <v>5.34459574272</v>
+        <v>0.3693028078619999</v>
       </c>
       <c r="S18">
-        <v>0.1176957114753225</v>
+        <v>0.01166350487109403</v>
       </c>
       <c r="T18">
-        <v>0.09979902696030016</v>
+        <v>0.01629889534982645</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.3709356666666666</v>
+      </c>
+      <c r="H19">
+        <v>1.112807</v>
+      </c>
+      <c r="I19">
+        <v>0.118869863207584</v>
+      </c>
+      <c r="J19">
+        <v>0.1360609502271682</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.6118760000000001</v>
+      </c>
+      <c r="N19">
+        <v>1.223752</v>
+      </c>
+      <c r="O19">
+        <v>0.5427242473053424</v>
+      </c>
+      <c r="P19">
+        <v>0.4417284032613671</v>
+      </c>
+      <c r="Q19">
+        <v>0.2269666319773333</v>
+      </c>
+      <c r="R19">
+        <v>1.361799791864</v>
+      </c>
+      <c r="S19">
+        <v>0.06451355703662502</v>
+      </c>
+      <c r="T19">
+        <v>0.06010198629007138</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.3709356666666666</v>
+      </c>
+      <c r="H20">
+        <v>1.112807</v>
+      </c>
+      <c r="I20">
+        <v>0.118869863207584</v>
+      </c>
+      <c r="J20">
+        <v>0.1360609502271682</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.192067</v>
+      </c>
+      <c r="N20">
+        <v>0.576201</v>
+      </c>
+      <c r="O20">
+        <v>0.1703603638763331</v>
+      </c>
+      <c r="P20">
+        <v>0.2079868696333922</v>
+      </c>
+      <c r="Q20">
+        <v>0.07124450068966665</v>
+      </c>
+      <c r="R20">
+        <v>0.6412005062069999</v>
+      </c>
+      <c r="S20">
+        <v>0.02025071314997394</v>
+      </c>
+      <c r="T20">
+        <v>0.0282988911170935</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
         <v>25</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.3709356666666666</v>
+      </c>
+      <c r="H21">
+        <v>1.112807</v>
+      </c>
+      <c r="I21">
+        <v>0.118869863207584</v>
+      </c>
+      <c r="J21">
+        <v>0.1360609502271682</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.212851</v>
+      </c>
+      <c r="N21">
+        <v>0.638553</v>
+      </c>
+      <c r="O21">
+        <v>0.18879544019244</v>
+      </c>
+      <c r="P21">
+        <v>0.2304935943620568</v>
+      </c>
+      <c r="Q21">
+        <v>0.07895402758566666</v>
+      </c>
+      <c r="R21">
+        <v>0.7105862482709999</v>
+      </c>
+      <c r="S21">
+        <v>0.02244208814989095</v>
+      </c>
+      <c r="T21">
+        <v>0.03136117747017692</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>1.715756666666667</v>
-      </c>
-      <c r="H19">
-        <v>5.14727</v>
-      </c>
-      <c r="I19">
-        <v>0.3229633061525894</v>
-      </c>
-      <c r="J19">
-        <v>0.3608812612892173</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>0.6290166666666667</v>
-      </c>
-      <c r="N19">
-        <v>1.88705</v>
-      </c>
-      <c r="O19">
-        <v>0.4415315004607061</v>
-      </c>
-      <c r="P19">
-        <v>0.5025826256436589</v>
-      </c>
-      <c r="Q19">
-        <v>1.079239539277778</v>
-      </c>
-      <c r="R19">
-        <v>9.7131558535</v>
-      </c>
-      <c r="S19">
-        <v>0.1425984731593032</v>
-      </c>
-      <c r="T19">
-        <v>0.1813726518443302</v>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.4644666666666666</v>
+      </c>
+      <c r="H22">
+        <v>1.3934</v>
+      </c>
+      <c r="I22">
+        <v>0.1488427619465438</v>
+      </c>
+      <c r="J22">
+        <v>0.1703685617061505</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.110622</v>
+      </c>
+      <c r="N22">
+        <v>0.331866</v>
+      </c>
+      <c r="O22">
+        <v>0.0981199486258843</v>
+      </c>
+      <c r="P22">
+        <v>0.1197911327431839</v>
+      </c>
+      <c r="Q22">
+        <v>0.0513802316</v>
+      </c>
+      <c r="R22">
+        <v>0.4624220844</v>
+      </c>
+      <c r="S22">
+        <v>0.0146044441555296</v>
+      </c>
+      <c r="T22">
+        <v>0.0204086429906068</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.4644666666666666</v>
+      </c>
+      <c r="H23">
+        <v>1.3934</v>
+      </c>
+      <c r="I23">
+        <v>0.1488427619465438</v>
+      </c>
+      <c r="J23">
+        <v>0.1703685617061505</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.6118760000000001</v>
+      </c>
+      <c r="N23">
+        <v>1.223752</v>
+      </c>
+      <c r="O23">
+        <v>0.5427242473053424</v>
+      </c>
+      <c r="P23">
+        <v>0.4417284032613671</v>
+      </c>
+      <c r="Q23">
+        <v>0.2841960061333333</v>
+      </c>
+      <c r="R23">
+        <v>1.7051760368</v>
+      </c>
+      <c r="S23">
+        <v>0.08078057594428621</v>
+      </c>
+      <c r="T23">
+        <v>0.07525663272839357</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.4644666666666666</v>
+      </c>
+      <c r="H24">
+        <v>1.3934</v>
+      </c>
+      <c r="I24">
+        <v>0.1488427619465438</v>
+      </c>
+      <c r="J24">
+        <v>0.1703685617061505</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.192067</v>
+      </c>
+      <c r="N24">
+        <v>0.576201</v>
+      </c>
+      <c r="O24">
+        <v>0.1703603638763331</v>
+      </c>
+      <c r="P24">
+        <v>0.2079868696333922</v>
+      </c>
+      <c r="Q24">
+        <v>0.08920871926666665</v>
+      </c>
+      <c r="R24">
+        <v>0.8028784734</v>
+      </c>
+      <c r="S24">
+        <v>0.02535690708557162</v>
+      </c>
+      <c r="T24">
+        <v>0.03543442383320566</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.4644666666666666</v>
+      </c>
+      <c r="H25">
+        <v>1.3934</v>
+      </c>
+      <c r="I25">
+        <v>0.1488427619465438</v>
+      </c>
+      <c r="J25">
+        <v>0.1703685617061505</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.212851</v>
+      </c>
+      <c r="N25">
+        <v>0.638553</v>
+      </c>
+      <c r="O25">
+        <v>0.18879544019244</v>
+      </c>
+      <c r="P25">
+        <v>0.2304935943620568</v>
+      </c>
+      <c r="Q25">
+        <v>0.09886219446666666</v>
+      </c>
+      <c r="R25">
+        <v>0.8897597502000001</v>
+      </c>
+      <c r="S25">
+        <v>0.02810083476115629</v>
+      </c>
+      <c r="T25">
+        <v>0.0392688621539445</v>
       </c>
     </row>
   </sheetData>
